--- a/research/School List.xlsx
+++ b/research/School List.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\仲人杰\Desktop\application\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A7471D-E89A-471C-8123-607E4A284993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="3300" yWindow="3060" windowWidth="9680" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,9 +24,158 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+  <si>
+    <t>school</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deadline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>People I have discussed my program with</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Princeton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fedor Sandormisky</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marina Halac (short discussion), Elliot Lipnowski</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Umich</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tilman Börgers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Havard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yannai Gonczarowski</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UCLA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Simon Board (short discussion)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Berkeley</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stanford (GSB&amp;Econ)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weijie Zhong, Frank Yang, Roberto Corrao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chicago</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Doron Ravid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Columbia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jacopo Perego (short discussion)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Northwestern</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jeff Ely</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Penn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rakesh Vohra, Xiao Lin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Caltech</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ellen Muir</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NYU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Duke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cornell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marco Battaglini</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Penn State</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nima Haghpanah</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,13 +183,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC5D3FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -49,11 +235,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +531,253 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="3" max="3" width="13.9140625" customWidth="1"/>
+    <col min="4" max="4" width="48.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2">
+        <v>12.1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2">
+        <v>12.1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2">
+        <v>12.1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2">
+        <v>12.1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2">
+        <v>12.1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3">
+        <v>12.4</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3">
+        <v>12.4</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4">
+        <v>12.12</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4">
+        <v>12.15</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4">
+        <v>12.15</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4">
+        <v>12.15</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4">
+        <v>12.15</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4">
+        <v>12.18</v>
+      </c>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>